--- a/Blucker.xlsx
+++ b/Blucker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://theklu-my.sharepoint.com/personal/arne_heinold_the-klu_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://theklu-my.sharepoint.com/personal/arne_heinold_the-klu_org/Documents/Dokumente/GitHub/Teaching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E9F72CE7-932B-4247-9A4A-B4D8C99EA796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9E0344-1D36-43E2-A88F-2C44E5DA0D13}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{E9F72CE7-932B-4247-9A4A-B4D8C99EA796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FD54EB-D567-4E05-A685-F51389D68EB1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{3FD989DA-E076-482C-9A5E-AEF21F12AAF4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3FD989DA-E076-482C-9A5E-AEF21F12AAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <t>ID</t>
@@ -105,12 +105,15 @@
   <si>
     <t xml:space="preserve">P-L5 </t>
   </si>
+  <si>
+    <t>Average inventory [€]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -181,17 +184,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,19 +531,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AF5278-DAB7-4FBB-AE7A-971D5A53A2C1}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="21.08203125" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.5" thickBot="1"/>
-    <row r="2" spans="2:5" ht="14.5" thickTop="1">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,218 +558,268 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>424764</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>38614</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="4">
+      <c r="F3" s="6">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>126000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>33452</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="4">
+      <c r="F4" s="6">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>959800</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>24522</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="4">
+      <c r="F5" s="6">
+        <v>401400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>84540</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>25545</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="4">
+      <c r="F6" s="6">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>441280</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>24767</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4">
+      <c r="F7" s="6">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>356984</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>19768</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4">
+      <c r="F8" s="6">
+        <v>30260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>762250</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>32234</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="4">
+      <c r="F9" s="6">
+        <v>157000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>128150</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>17669</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="4">
+      <c r="F10" s="6">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>51206</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>22600</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4">
+      <c r="F11" s="6">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>80596</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>32574</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="4">
+      <c r="F12" s="6">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>144625</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>30578</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="4">
+      <c r="F13" s="6">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>653600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>31400</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="4">
+      <c r="F14" s="6">
+        <v>109200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>35608</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>33560</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="4">
+      <c r="F15" s="6">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>133720</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>18768</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.5" thickBot="1">
-      <c r="B17" s="5">
+      <c r="F16" s="6">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>118300</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>35287</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="14.5" thickTop="1"/>
+      <c r="F17" s="7">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
